--- a/dev-docs/开发计划表.xlsx
+++ b/dev-docs/开发计划表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\SecondGrade\Last\实训\p2p-chat-specification\dev-docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\docs\p2p-chat-specification\dev-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A9D3DE-0098-4DA4-8662-61D60F06E9CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A9174E-6C5B-4FD6-9E6B-F64FD5387461}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件1编码开发计划表 " sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <t>星期六
 星期天</t>
@@ -222,12 +222,73 @@
     <t>昵称重名：不需要解决</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>p2p模块</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点路由</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接管理</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布式记录存储</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点发现</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对建立的p2p连接进行管理，提供管理接口</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对p2p连接请求进行路由</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>存储p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>路由表</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过路由表，发现新的节点，更新本地路由表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>mDNS，k桶</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -288,6 +349,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -297,7 +365,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -448,13 +516,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -485,6 +564,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -506,35 +612,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -811,82 +908,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.08984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.90625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6328125" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="2" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="22"/>
       <c r="L1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17" t="s">
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="18" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
@@ -896,127 +993,123 @@
       <c r="I3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="18"/>
+      <c r="J3" s="26"/>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="10">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="10">
+        <v>10</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="10">
+        <v>10</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" ht="91.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="10">
+        <v>10</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C8" s="5">
         <v>5</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D8" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="4" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" s="4">
-        <v>5</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="4">
-        <v>5</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" ht="92" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="4">
-        <v>5</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="4">
-        <v>5</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="C9" s="4">
         <v>5</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="25" t="s">
-        <v>47</v>
-      </c>
+      <c r="D9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -1024,21 +1117,19 @@
       <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="A10" s="27"/>
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4">
         <v>5</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="25" t="s">
-        <v>48</v>
+      <c r="D10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -1046,28 +1137,115 @@
       <c r="J10" s="6"/>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="6">
+    <row r="11" spans="1:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="4">
         <v>5</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+      <c r="D11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
+    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="4">
+        <v>5</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="6">
+        <v>5</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="6">
+        <v>5</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A4:A7"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
@@ -1075,14 +1253,10 @@
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.43263888888888902" right="0.35416666666666702" top="0.39305555555555599" bottom="0.31458333333333299" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -1095,72 +1269,72 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.90625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.08984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="11.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.90625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6328125" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="2" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17" t="s">
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="18" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1170,11 +1344,11 @@
       <c r="I3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="18"/>
+      <c r="J3" s="26"/>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="27" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1201,7 +1375,7 @@
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
@@ -1218,7 +1392,7 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
@@ -1235,7 +1409,7 @@
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
@@ -1252,7 +1426,7 @@
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="27" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1271,7 +1445,7 @@
       <c r="K8" s="8"/>
     </row>
     <row r="9" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="4" t="s">
         <v>13</v>
       </c>

--- a/dev-docs/开发计划表.xlsx
+++ b/dev-docs/开发计划表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\docs\p2p-chat-specification\dev-docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\SecondGrade\Last\实训\p2p-chat-specification\dev-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A9174E-6C5B-4FD6-9E6B-F64FD5387461}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1E8EF0-2D71-4983-A2B8-D07B6A3E35C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件1编码开发计划表 " sheetId="3" r:id="rId1"/>
@@ -533,7 +533,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -585,34 +585,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -621,16 +600,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -911,79 +914,79 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.90625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6328125" style="2" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="30"/>
       <c r="L1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="18" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="22" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
@@ -993,11 +996,11 @@
       <c r="I3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="26"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="24" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -1018,7 +1021,7 @@
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="10" t="s">
         <v>51</v>
       </c>
@@ -1037,14 +1040,14 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="18" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="10">
         <v>10</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="19" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="10"/>
@@ -1055,9 +1058,9 @@
       <c r="J6" s="11"/>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="91.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="10" t="s">
+    <row r="7" spans="1:12" ht="92" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="17" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="10">
@@ -1077,7 +1080,7 @@
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1098,7 +1101,7 @@
       <c r="K8" s="8"/>
     </row>
     <row r="9" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="4" t="s">
         <v>30</v>
       </c>
@@ -1117,7 +1120,7 @@
       <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1137,8 +1140,8 @@
       <c r="J10" s="6"/>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
+    <row r="11" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
@@ -1157,8 +1160,8 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1177,8 +1180,8 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
+    <row r="13" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
@@ -1197,7 +1200,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>27</v>
       </c>
@@ -1219,7 +1222,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:12" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="56" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>28</v>
       </c>
@@ -1241,6 +1244,9 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="F2:F3"/>
@@ -1250,9 +1256,6 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.43263888888888902" right="0.35416666666666702" top="0.39305555555555599" bottom="0.31458333333333299" header="0.3" footer="0.3"/>
@@ -1269,72 +1272,72 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.90625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="11.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.90625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6328125" style="2" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="18" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="22" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1344,11 +1347,11 @@
       <c r="I3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="26"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1375,7 +1378,7 @@
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
@@ -1392,7 +1395,7 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
@@ -1409,7 +1412,7 @@
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
@@ -1426,7 +1429,7 @@
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1445,7 +1448,7 @@
       <c r="K8" s="8"/>
     </row>
     <row r="9" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="4" t="s">
         <v>13</v>
       </c>

--- a/dev-docs/开发计划表.xlsx
+++ b/dev-docs/开发计划表.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\SecondGrade\Last\实训\p2p-chat-specification\dev-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1E8EF0-2D71-4983-A2B8-D07B6A3E35C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EF9E21-F497-478B-9719-7ACAABE79ED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件1编码开发计划表 " sheetId="3" r:id="rId1"/>
-    <sheet name="附件2 编码开发计划表" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>星期六
 星期天</t>
@@ -59,55 +58,6 @@
   </si>
   <si>
     <t>结束时间</t>
-  </si>
-  <si>
-    <t>分页显示</t>
-  </si>
-  <si>
-    <t>高级搜索</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">   电商前台   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="26"/>
-        <color rgb="FF000000"/>
-        <rFont val="隶书"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目编码计划表</t>
-    </r>
-  </si>
-  <si>
-    <t>后台商品管理</t>
-  </si>
-  <si>
-    <t>商品添加</t>
-  </si>
-  <si>
-    <t>添加新商品</t>
-  </si>
-  <si>
-    <t>javaswing</t>
-  </si>
-  <si>
-    <t>窗体不能运行，调试</t>
-  </si>
-  <si>
-    <t>商品删除</t>
-  </si>
-  <si>
-    <t>商品修改</t>
-  </si>
-  <si>
-    <t>商品查找</t>
-  </si>
-  <si>
-    <t>前台商品展示</t>
   </si>
   <si>
     <r>
@@ -594,18 +544,39 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -613,27 +584,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -913,7 +863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -934,59 +884,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="30"/>
+      <c r="A1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="23"/>
       <c r="L1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="22" t="s">
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
@@ -996,21 +946,21 @@
       <c r="I3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="23"/>
+      <c r="J3" s="28"/>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>49</v>
+      <c r="A4" s="31" t="s">
+        <v>37</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C4" s="10">
         <v>10</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -1021,15 +971,15 @@
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="10" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C5" s="10">
         <v>10</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -1040,15 +990,15 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="18" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C6" s="10">
         <v>10</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -1059,18 +1009,18 @@
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:12" ht="92" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="17" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C7" s="10">
         <v>10</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
@@ -1080,17 +1030,17 @@
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>25</v>
+      <c r="A8" s="29" t="s">
+        <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C8" s="5">
         <v>5</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -1101,15 +1051,15 @@
       <c r="K8" s="8"/>
     </row>
     <row r="9" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C9" s="4">
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
@@ -1120,19 +1070,19 @@
       <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4">
         <v>5</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="15" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -1141,19 +1091,19 @@
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4">
         <v>5</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="15" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -1161,17 +1111,17 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>26</v>
+      <c r="A12" s="29" t="s">
+        <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C12" s="4">
         <v>5</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
@@ -1181,19 +1131,19 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4">
         <v>5</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="15" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -1202,20 +1152,20 @@
     </row>
     <row r="14" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C14" s="6">
         <v>5</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="15" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -1224,16 +1174,16 @@
     </row>
     <row r="15" spans="1:12" ht="56" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C15" s="6">
         <v>5</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -1262,264 +1212,4 @@
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.90625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.08984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.90625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6328125" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="30"/>
-    </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="5">
-        <v>25</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="4">
-        <v>4</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="4">
-        <v>20</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4">
-        <v>25</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4">
-        <v>30</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4">
-        <v>50</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4">
-        <v>50</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="J2:J3"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.43263888888888902" right="0.35416666666666702" top="0.39305555555555599" bottom="0.31458333333333299" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>